--- a/downloaded_files/SBES170_Lecture-35369.xlsx
+++ b/downloaded_files/SBES170_Lecture-35369.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Alyaa Mohamed Abdelghani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
   </x:si>
   <x:si>
     <x:t>4240032</x:t>
@@ -542,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -852,7 +861,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.100625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.460625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1509,7 +1518,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1541,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.664687419</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45906.664687419</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4593479514</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4155542824</x:v>
+        <x:v>45907.4593479514</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4157087616</x:v>
+        <x:v>45907.4155542824</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4160790162</x:v>
+        <x:v>45907.4157087616</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45907.4160790162</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4200395833</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4166309375</x:v>
+        <x:v>45907.4200395833</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45907.4166309375</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6697785532</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.6697785532</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6650637384</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45906.6650637384</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2318,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.3052585995</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2335,38 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45912.3052585995</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES170_Lecture-35369.xlsx
+++ b/downloaded_files/SBES170_Lecture-35369.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Ahmed Ali Kamal Ewis</x:t>
   </x:si>
   <x:si>
-    <x:t>4240006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسراء محمد ابراهيم حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Esraa Mohamed Ibrahim Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220039</x:t>
   </x:si>
   <x:si>
@@ -159,6 +150,15 @@
     <x:t>saif allah alaa mohamed Hamdan Mahmoud Al shaer</x:t>
   </x:si>
   <x:si>
+    <x:t>2250001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف محمد وائل سعيد محمد نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saief Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220063</x:t>
   </x:si>
   <x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Moamen Ihab Moustafa Elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ماهي تامر حسن ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahy tamer hassan Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230240</x:t>
@@ -551,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1038,7 +1047,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6720203356</x:v>
+        <x:v>45907.4145908912</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1070,7 +1079,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4145908912</x:v>
+        <x:v>45907.4155006597</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1102,7 +1111,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4155006597</x:v>
+        <x:v>45907.4215136921</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1134,7 +1143,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4215136921</x:v>
+        <x:v>45906.6649462963</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1166,7 +1175,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6649462963</x:v>
+        <x:v>45907.4320183681</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1198,7 +1207,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4320183681</x:v>
+        <x:v>45906.6652700231</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1230,7 +1239,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6652700231</x:v>
+        <x:v>45906.6847173958</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1262,7 +1271,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6847173958</x:v>
+        <x:v>45907.4389</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1294,7 +1303,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4389</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1326,7 +1335,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1358,7 +1367,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45927.4162309028</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1838,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4155542824</x:v>
+        <x:v>45927.4161573727</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4157087616</x:v>
+        <x:v>45907.4155542824</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4160790162</x:v>
+        <x:v>45907.4157087616</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45907.4160790162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4200395833</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4166309375</x:v>
+        <x:v>45907.4200395833</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45907.4166309375</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6697785532</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.6697785532</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6650637384</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2318,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45906.6650637384</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2350,7 +2359,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.3052585995</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2367,6 +2376,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45912.3052585995</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES170_Lecture-35369.xlsx
+++ b/downloaded_files/SBES170_Lecture-35369.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Mohamed Mustafa Ali Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جهاد خميس محمود مراد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gehad khamis Mahmoud Morad</x:t>
   </x:si>
   <x:si>
     <x:t>4230192</x:t>
@@ -560,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1143,7 +1152,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649462963</x:v>
+        <x:v>45928.4329643519</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1175,7 +1184,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4320183681</x:v>
+        <x:v>45906.6649462963</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1207,7 +1216,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6652700231</x:v>
+        <x:v>45907.4320183681</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1239,7 +1248,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6847173958</x:v>
+        <x:v>45906.6652700231</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1271,7 +1280,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4389</x:v>
+        <x:v>45906.6847173958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1303,7 +1312,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45907.4389</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1335,7 +1344,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1367,7 +1376,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4162309028</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1399,7 +1408,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4232127315</x:v>
+        <x:v>45927.4162309028</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1431,7 +1440,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4246724537</x:v>
+        <x:v>45907.4232127315</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1463,7 +1472,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6684945949</x:v>
+        <x:v>45907.4246724537</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1495,7 +1504,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45907.6684945949</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1527,7 +1536,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.5696794329</x:v>
+        <x:v>45907.414927581</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1559,7 +1568,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45921.5696794329</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1591,7 +1600,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1632,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1664,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1696,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1728,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1751,7 +1760,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.664687419</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1783,7 +1792,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45906.664687419</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1815,7 +1824,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4593479514</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1847,7 +1856,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4161573727</x:v>
+        <x:v>45907.4593479514</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1879,7 +1888,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4155542824</x:v>
+        <x:v>45927.4161573727</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1911,7 +1920,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4157087616</x:v>
+        <x:v>45907.4155542824</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1943,7 +1952,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4160790162</x:v>
+        <x:v>45907.4157087616</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1975,7 +1984,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45907.4160790162</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2007,7 +2016,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4200395833</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2039,7 +2048,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4166309375</x:v>
+        <x:v>45907.4200395833</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45907.4166309375</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6697785532</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2176,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.6697785532</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2272,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6650637384</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2368,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45906.6650637384</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2391,7 +2400,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.3052585995</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2408,6 +2417,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45912.3052585995</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES170_Lecture-35369.xlsx
+++ b/downloaded_files/SBES170_Lecture-35369.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -346,6 +346,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan mohamed mohamed ramzy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم احمد سمير محمد على الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Ahmed Samir</x:t>
   </x:si>
   <x:si>
     <x:t>1220315</x:t>
@@ -569,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +878,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2080,7 +2089,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4166309375</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2112,7 +2121,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45907.4166309375</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2144,7 +2153,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2176,7 +2185,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6697785532</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2208,7 +2217,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.6697785532</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2240,7 +2249,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2272,7 +2281,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2304,7 +2313,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2336,7 +2345,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2368,7 +2377,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6650637384</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2400,7 +2409,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45906.6650637384</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2432,7 +2441,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.3052585995</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2449,6 +2458,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45912.3052585995</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES170_Lecture-35369.xlsx
+++ b/downloaded_files/SBES170_Lecture-35369.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد حمزه عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Hamza Osman</x:t>
   </x:si>
   <x:si>
     <x:t>1210267</x:t>
@@ -578,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -878,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1609,7 +1600,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1641,7 +1632,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1673,7 +1664,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1705,7 +1696,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1737,7 +1728,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1769,7 +1760,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45906.664687419</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1801,7 +1792,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.664687419</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1833,7 +1824,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45907.4593479514</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1865,7 +1856,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4593479514</x:v>
+        <x:v>45927.4161573727</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1897,7 +1888,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4161573727</x:v>
+        <x:v>45907.4155542824</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1929,7 +1920,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4155542824</x:v>
+        <x:v>45907.4157087616</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1961,7 +1952,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4157087616</x:v>
+        <x:v>45907.4160790162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1993,7 +1984,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4160790162</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2025,7 +2016,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45907.4200395833</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,7 +2048,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4200395833</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2089,7 +2080,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45929.4058627315</x:v>
+        <x:v>45907.4166309375</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2121,7 +2112,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4166309375</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2153,7 +2144,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2185,7 +2176,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.6697785532</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2217,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6697785532</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2249,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,7 +2272,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2313,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2377,7 +2368,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45906.6650637384</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2409,7 +2400,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6650637384</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2441,7 +2432,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45912.3052585995</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2458,38 +2449,6 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45912.3052585995</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES170_Lecture-35369.xlsx
+++ b/downloaded_files/SBES170_Lecture-35369.xlsx
@@ -309,7 +309,7 @@
     <x:t>محمد حاتم فوزى محمود المتناوى</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed hatem fawzy Mahmoud</x:t>
+    <x:t>Mohamed Hatem Fawzy Mahmoud El-Metnawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220079</x:t>
@@ -336,7 +336,7 @@
     <x:t>مروان محمد محمد رمزي عبدالرحمن</x:t>
   </x:si>
   <x:si>
-    <x:t>Marwan mohamed mohamed ramzy</x:t>
+    <x:t>Marwan Mohamed Mohamed Ramzy Abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>4250248</x:t>
